--- a/Calculs/PH2/DataBase_PH2_FileA_MidStrip_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_MidStrip_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC5F63-BBE1-44E8-ADDD-C17A6192A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0683F6-D6BF-4AB1-9B66-613728748B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
   <si>
     <t>fck</t>
   </si>
@@ -709,8 +709,8 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1105,8 +1105,8 @@
   <dimension ref="A1:AT69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U34" sqref="U34"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A52" si="0">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A53" si="0">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1481,7 +1481,7 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <f>7-1</f>
         <v>6</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="11">
         <f>7-1</f>
         <v>6</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="11">
         <f>7-1</f>
         <v>6</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -3375,16 +3375,16 @@
         <f t="shared" si="2"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="5">
+        <v>0.25</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="15"/>
-        <v>8.64</v>
+        <v>6.48</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="16"/>
-        <v>4.8000000000000007</v>
+        <v>6.9600000000000009</v>
       </c>
       <c r="AD22" s="4">
         <f t="shared" si="17"/>
@@ -3459,9 +3459,9 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U23" s="11">
+        <f>7-1+4</f>
+        <v>10</v>
       </c>
       <c r="V23">
         <v>75</v>
@@ -3480,16 +3480,16 @@
         <f t="shared" si="2"/>
         <v>50.3</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
+      <c r="AA23" s="5">
+        <v>0.5</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="15"/>
-        <v>104.34</v>
+        <v>52.17</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="16"/>
-        <v>50.3</v>
+        <v>102.47</v>
       </c>
       <c r="AD23" s="4">
         <f t="shared" si="17"/>
@@ -3564,7 +3564,7 @@
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24" s="12">
+      <c r="U24" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -3585,16 +3585,16 @@
         <f t="shared" si="2"/>
         <v>2.6000000000000014</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
+      <c r="AA24" s="5">
+        <v>0.5</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="15"/>
-        <v>4.68</v>
+        <v>2.34</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="16"/>
-        <v>2.6000000000000014</v>
+        <v>4.9400000000000013</v>
       </c>
       <c r="AD24" s="4">
         <f t="shared" si="17"/>
@@ -3689,16 +3689,16 @@
         <f t="shared" si="2"/>
         <v>31.7</v>
       </c>
-      <c r="AA25" s="3">
-        <v>0</v>
+      <c r="AA25" s="5">
+        <v>0.5</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="15"/>
-        <v>57.66</v>
+        <v>28.83</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="16"/>
-        <v>31.7</v>
+        <v>60.53</v>
       </c>
       <c r="AD25" s="4">
         <f t="shared" si="17"/>
@@ -3974,7 +3974,7 @@
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="12">
+      <c r="U28" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U30" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -4622,15 +4622,15 @@
         <v>3.7999999999999972</v>
       </c>
       <c r="AA34" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="23"/>
-        <v>4.4174999999999978</v>
+        <v>5.889999999999997</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="24"/>
-        <v>5.2724999999999964</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="AD34" s="4">
         <f t="shared" si="25"/>
@@ -4705,7 +4705,7 @@
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="11">
         <f>7-1</f>
         <v>6</v>
       </c>
@@ -4727,15 +4727,15 @@
         <v>40.1</v>
       </c>
       <c r="AA35" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="23"/>
-        <v>43.777500000000003</v>
+        <v>87.555000000000007</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="24"/>
-        <v>83.877499999999998</v>
+        <v>40.1</v>
       </c>
       <c r="AD35" s="4">
         <f t="shared" si="25"/>
@@ -4831,15 +4831,15 @@
         <v>35</v>
       </c>
       <c r="AA36" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="24"/>
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AD36" s="4">
         <f t="shared" si="25"/>
@@ -4935,15 +4935,15 @@
         <v>20</v>
       </c>
       <c r="AA37" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="23"/>
-        <v>20.25</v>
+        <v>40.5</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="24"/>
-        <v>40.25</v>
+        <v>20</v>
       </c>
       <c r="AD37" s="4">
         <f t="shared" si="25"/>
@@ -5219,7 +5219,7 @@
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="T46">
         <v>0</v>
       </c>
-      <c r="U46" s="12">
+      <c r="U46" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47" s="12">
+      <c r="U47" s="11">
         <f>7-1</f>
         <v>6</v>
       </c>
@@ -6360,7 +6360,7 @@
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51" s="12">
+      <c r="U51" s="11">
         <f>7-1</f>
         <v>6</v>
       </c>
@@ -6465,7 +6465,7 @@
       <c r="T52">
         <v>0</v>
       </c>
-      <c r="U52" s="12">
+      <c r="U52" s="11">
         <f>12-2</f>
         <v>10</v>
       </c>
@@ -6509,6 +6509,10 @@
       <c r="AT52" s="10"/>
     </row>
     <row r="53" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
@@ -6566,7 +6570,7 @@
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53" s="12">
+      <c r="U53" s="11">
         <f>7-1</f>
         <v>6</v>
       </c>
@@ -6580,146 +6584,1378 @@
         <v>44</v>
       </c>
       <c r="Y53" s="2">
-        <f t="shared" ref="Y53" si="31">IFERROR(IF(ISNUMBER(SEARCH("Appui",C53)),V53+X53*V53,IF(A52&lt;A53,V53-X54*V54/2,IF(A53&lt;A54,V53-(X52*V52)/2,V53-(X54*V54+X52*V52)/2))),0)</f>
+        <f t="shared" ref="Y53:Y66" si="31">IFERROR(IF(ISNUMBER(SEARCH("Appui",C53)),V53+X53*V53,IF(A52&lt;A53,V53-X54*V54/2,IF(A53&lt;A54,V53-(X52*V52)/2,V53-(X54*V54+X52*V52)/2))),0)</f>
         <v>75.25</v>
       </c>
       <c r="Z53" s="2">
-        <f t="shared" ref="Z53" si="32">IFERROR(IF(ISNUMBER(SEARCH("Appui",C53)),W53+X53*W53,IF(A52&lt;A53,W53-X54*W54/2,IF(A53&lt;A54,W53-(X52*W52)/2,W53-(X54*W54+X52*W52)/2))),0)</f>
+        <f t="shared" ref="Z53:Z66" si="32">IFERROR(IF(ISNUMBER(SEARCH("Appui",C53)),W53+X53*W53,IF(A52&lt;A53,W53-X54*W54/2,IF(A53&lt;A54,W53-(X52*W52)/2,W53-(X54*W54+X52*W52)/2))),0)</f>
         <v>34.56</v>
       </c>
       <c r="AA53" s="5">
         <v>0</v>
       </c>
       <c r="AB53" s="2">
-        <f t="shared" ref="AB53" si="33">Y53*(1-AA53)</f>
+        <f t="shared" ref="AB53:AB66" si="33">Y53*(1-AA53)</f>
         <v>75.25</v>
       </c>
       <c r="AC53" s="2">
-        <f t="shared" ref="AC53" si="34">Y53*AA53 + Z53</f>
+        <f t="shared" ref="AC53:AC66" si="34">Y53*AA53 + Z53</f>
         <v>34.56</v>
       </c>
       <c r="AD53" s="4">
-        <f t="shared" ref="AD53" si="35">1.35*Y53+1.5*Z53</f>
+        <f t="shared" ref="AD53:AD66" si="35">1.35*Y53+1.5*Z53</f>
         <v>153.42750000000001</v>
       </c>
       <c r="AE53" s="4"/>
       <c r="AF53">
-        <f t="shared" ref="AF53" si="36">AB53+AC53</f>
+        <f t="shared" ref="AF53:AF66" si="36">AB53+AC53</f>
         <v>109.81</v>
       </c>
       <c r="AT53" s="10"/>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G54" s="1"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
+      <c r="A54">
+        <f t="shared" ref="A54:A66" si="37">IF(B54=B53,A53,A53+1)</f>
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6">
+        <v>25</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="6">
+        <v>500</v>
+      </c>
+      <c r="G54" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L54" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M54" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O54" s="6">
+        <v>1</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>0</v>
+      </c>
+      <c r="R54" s="6">
+        <v>1</v>
+      </c>
+      <c r="S54" s="6">
+        <v>0</v>
+      </c>
+      <c r="T54" s="6">
+        <v>0</v>
+      </c>
+      <c r="U54" s="6">
+        <v>0</v>
+      </c>
+      <c r="V54" s="8">
+        <v>0</v>
+      </c>
+      <c r="W54" s="8">
+        <v>0</v>
+      </c>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="4"/>
+      <c r="AF54">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
       <c r="AT54" s="10"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G55" s="1"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
+      <c r="A55">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>500</v>
+      </c>
+      <c r="G55" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H55">
+        <v>1576</v>
+      </c>
+      <c r="I55">
+        <v>1870</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0.24</v>
+      </c>
+      <c r="L55">
+        <v>5.3</v>
+      </c>
+      <c r="M55">
+        <v>1.3621E-3</v>
+      </c>
+      <c r="N55">
+        <v>0.04</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>40</v>
+      </c>
+      <c r="W55">
+        <v>23</v>
+      </c>
+      <c r="X55" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y55" s="2">
+        <f t="shared" si="31"/>
+        <v>58.585000000000001</v>
+      </c>
+      <c r="Z55" s="2">
+        <f t="shared" si="32"/>
+        <v>33.177500000000002</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" si="33"/>
+        <v>58.585000000000001</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" si="34"/>
+        <v>33.177500000000002</v>
+      </c>
+      <c r="AD55" s="4">
+        <f t="shared" si="35"/>
+        <v>128.85599999999999</v>
+      </c>
+      <c r="AE55" s="4"/>
+      <c r="AF55">
+        <f t="shared" si="36"/>
+        <v>91.762500000000003</v>
+      </c>
       <c r="AT55" s="10"/>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G56" s="1"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
+      <c r="A56">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56">
+        <v>500</v>
+      </c>
+      <c r="G56" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H56">
+        <v>1576</v>
+      </c>
+      <c r="I56">
+        <v>1870</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0.23</v>
+      </c>
+      <c r="L56">
+        <v>5.3</v>
+      </c>
+      <c r="M56">
+        <v>1.024E-4</v>
+      </c>
+      <c r="N56">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <f>12-2</f>
+        <v>10</v>
+      </c>
+      <c r="V56">
+        <v>42</v>
+      </c>
+      <c r="W56">
+        <v>23</v>
+      </c>
+      <c r="X56" s="9">
+        <v>-0.88500000000000001</v>
+      </c>
+      <c r="Y56" s="2">
+        <f t="shared" si="31"/>
+        <v>4.8299999999999983</v>
+      </c>
+      <c r="Z56" s="2">
+        <f t="shared" si="32"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="33"/>
+        <v>4.8299999999999983</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="34"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="AD56" s="4">
+        <f t="shared" si="35"/>
+        <v>10.487999999999998</v>
+      </c>
+      <c r="AE56" s="4"/>
+      <c r="AF56">
+        <f t="shared" si="36"/>
+        <v>7.4749999999999979</v>
+      </c>
       <c r="AT56" s="10"/>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G57" s="1"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
+      <c r="A57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>500</v>
+      </c>
+      <c r="G57" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H57">
+        <v>1576</v>
+      </c>
+      <c r="I57">
+        <v>1870</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0.215</v>
+      </c>
+      <c r="L57">
+        <v>5.3</v>
+      </c>
+      <c r="M57">
+        <v>2.7188999999999998E-3</v>
+      </c>
+      <c r="N57">
+        <v>0.04</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" s="11">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V57">
+        <v>83</v>
+      </c>
+      <c r="W57">
+        <v>36</v>
+      </c>
+      <c r="X57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y57" s="2">
+        <f t="shared" si="31"/>
+        <v>118.38500000000001</v>
+      </c>
+      <c r="Z57" s="2">
+        <f t="shared" si="32"/>
+        <v>54.997500000000002</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="33"/>
+        <v>118.38500000000001</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="34"/>
+        <v>54.997500000000002</v>
+      </c>
+      <c r="AD57" s="4">
+        <f t="shared" si="35"/>
+        <v>242.31600000000003</v>
+      </c>
+      <c r="AE57" s="4"/>
+      <c r="AF57">
+        <f t="shared" si="36"/>
+        <v>173.38249999999999</v>
+      </c>
       <c r="AT57" s="10"/>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G58" s="1"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
+      <c r="A58">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>500</v>
+      </c>
+      <c r="G58" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H58">
+        <v>1576</v>
+      </c>
+      <c r="I58">
+        <v>1870</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0.2</v>
+      </c>
+      <c r="L58">
+        <v>5.3</v>
+      </c>
+      <c r="M58">
+        <v>1.3439999999999999E-4</v>
+      </c>
+      <c r="N58">
+        <v>0.04</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" s="11">
+        <f>12-2</f>
+        <v>10</v>
+      </c>
+      <c r="V58">
+        <v>40</v>
+      </c>
+      <c r="W58">
+        <v>21</v>
+      </c>
+      <c r="X58" s="9">
+        <v>-0.84</v>
+      </c>
+      <c r="Y58" s="2">
+        <f t="shared" si="31"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="Z58" s="2">
+        <f t="shared" si="32"/>
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="33"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="34"/>
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="AD58" s="4">
+        <f t="shared" si="35"/>
+        <v>13.679999999999998</v>
+      </c>
+      <c r="AE58" s="4"/>
+      <c r="AF58">
+        <f t="shared" si="36"/>
+        <v>9.759999999999998</v>
+      </c>
       <c r="AT58" s="10"/>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G59" s="1"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
+      <c r="A59">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>500</v>
+      </c>
+      <c r="G59" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H59">
+        <v>1576</v>
+      </c>
+      <c r="I59">
+        <v>1870</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0.215</v>
+      </c>
+      <c r="L59">
+        <v>5.3</v>
+      </c>
+      <c r="M59">
+        <v>6.7840000000000001E-4</v>
+      </c>
+      <c r="N59">
+        <v>0.04</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>16</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y59" s="2">
+        <f t="shared" si="31"/>
+        <v>16.8</v>
+      </c>
+      <c r="Z59" s="2">
+        <f t="shared" si="32"/>
+        <v>25.425000000000001</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="33"/>
+        <v>16.8</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="34"/>
+        <v>25.425000000000001</v>
+      </c>
+      <c r="AD59" s="4">
+        <f t="shared" si="35"/>
+        <v>60.81750000000001</v>
+      </c>
+      <c r="AE59" s="4"/>
+      <c r="AF59">
+        <f t="shared" si="36"/>
+        <v>42.225000000000001</v>
+      </c>
       <c r="AT59" s="10"/>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G60" s="1"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
+      <c r="A60">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60">
+        <v>500</v>
+      </c>
+      <c r="G60" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H60">
+        <v>1576</v>
+      </c>
+      <c r="I60">
+        <v>1870</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0.23</v>
+      </c>
+      <c r="L60">
+        <v>5.3</v>
+      </c>
+      <c r="M60">
+        <v>1.3439999999999999E-4</v>
+      </c>
+      <c r="N60">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>11</v>
+      </c>
+      <c r="X60" s="9">
+        <v>-0.11</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <f t="shared" si="32"/>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="34"/>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="AD60" s="4">
+        <f t="shared" si="35"/>
+        <v>14.684999999999999</v>
+      </c>
+      <c r="AE60" s="4"/>
+      <c r="AF60">
+        <f t="shared" si="36"/>
+        <v>9.7899999999999991</v>
+      </c>
       <c r="AT60" s="10"/>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G61" s="1"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
+      <c r="A61">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>500</v>
+      </c>
+      <c r="G61" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H61">
+        <v>1576</v>
+      </c>
+      <c r="I61">
+        <v>1870</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0.215</v>
+      </c>
+      <c r="L61">
+        <v>5.3</v>
+      </c>
+      <c r="M61">
+        <v>6.7840000000000001E-4</v>
+      </c>
+      <c r="N61">
+        <v>0.04</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>16</v>
+      </c>
+      <c r="X61" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y61" s="2">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="Z61" s="2">
+        <f t="shared" si="32"/>
+        <v>16.605</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="34"/>
+        <v>16.605</v>
+      </c>
+      <c r="AD61" s="4">
+        <f t="shared" si="35"/>
+        <v>27.607499999999998</v>
+      </c>
+      <c r="AE61" s="4"/>
+      <c r="AF61">
+        <f t="shared" si="36"/>
+        <v>18.605</v>
+      </c>
       <c r="AT61" s="10"/>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G62" s="1"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
+      <c r="A62">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="G62" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H62">
+        <v>1576</v>
+      </c>
+      <c r="I62">
+        <v>1870</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0.2</v>
+      </c>
+      <c r="L62">
+        <v>5.3</v>
+      </c>
+      <c r="M62">
+        <v>1.8560000000000001E-4</v>
+      </c>
+      <c r="N62">
+        <v>0.04</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" s="11">
+        <v>1.539E-4</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R62" s="11">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62" s="11">
+        <f>(12-2)*0</f>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>36</v>
+      </c>
+      <c r="W62">
+        <v>20</v>
+      </c>
+      <c r="X62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <f t="shared" si="31"/>
+        <v>36</v>
+      </c>
+      <c r="Z62" s="2">
+        <f t="shared" si="32"/>
+        <v>20</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="33"/>
+        <v>27</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="34"/>
+        <v>29</v>
+      </c>
+      <c r="AD62" s="4">
+        <f t="shared" si="35"/>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AE62" s="4"/>
+      <c r="AF62">
+        <f t="shared" si="36"/>
+        <v>56</v>
+      </c>
       <c r="AT62" s="10"/>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G63" s="1"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
+      <c r="A63">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>500</v>
+      </c>
+      <c r="G63" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H63">
+        <v>1576</v>
+      </c>
+      <c r="I63">
+        <v>1870</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0.215</v>
+      </c>
+      <c r="L63">
+        <v>5.3</v>
+      </c>
+      <c r="M63">
+        <v>1.3568E-3</v>
+      </c>
+      <c r="N63">
+        <v>0.04</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63" s="11">
+        <f>7-1+4</f>
+        <v>10</v>
+      </c>
+      <c r="V63">
+        <v>75</v>
+      </c>
+      <c r="W63">
+        <v>34</v>
+      </c>
+      <c r="X63" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y63" s="2">
+        <f t="shared" si="31"/>
+        <v>75</v>
+      </c>
+      <c r="Z63" s="2">
+        <f t="shared" si="32"/>
+        <v>34</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="33"/>
+        <v>37.5</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="34"/>
+        <v>71.5</v>
+      </c>
+      <c r="AD63" s="4">
+        <f t="shared" si="35"/>
+        <v>152.25</v>
+      </c>
+      <c r="AE63" s="4"/>
+      <c r="AF63">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
       <c r="AT63" s="10"/>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="G64" s="1"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
+      <c r="A64">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>500</v>
+      </c>
+      <c r="G64" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H64">
+        <v>1576</v>
+      </c>
+      <c r="I64">
+        <v>1870</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0.23</v>
+      </c>
+      <c r="L64">
+        <v>5.3</v>
+      </c>
+      <c r="M64">
+        <v>1.024E-4</v>
+      </c>
+      <c r="N64">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" s="11">
+        <v>1.539E-4</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R64" s="11">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <f>(12-2)*0</f>
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>36</v>
+      </c>
+      <c r="W64">
+        <v>20</v>
+      </c>
+      <c r="X64" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <f t="shared" si="31"/>
+        <v>36</v>
+      </c>
+      <c r="Z64" s="2">
+        <f t="shared" si="32"/>
+        <v>20</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="33"/>
+        <v>18</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="34"/>
+        <v>38</v>
+      </c>
+      <c r="AD64" s="4">
+        <f t="shared" si="35"/>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AE64" s="4"/>
+      <c r="AF64">
+        <f t="shared" si="36"/>
+        <v>56</v>
+      </c>
       <c r="AT64" s="10"/>
     </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>500</v>
+      </c>
+      <c r="G65" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H65">
+        <v>1576</v>
+      </c>
+      <c r="I65">
+        <v>1870</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0.24</v>
+      </c>
+      <c r="L65">
+        <v>5.3</v>
+      </c>
+      <c r="M65">
+        <v>1.3621E-3</v>
+      </c>
+      <c r="N65">
+        <v>0.04</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>42</v>
+      </c>
+      <c r="W65">
+        <v>23</v>
+      </c>
+      <c r="X65" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y65" s="2">
+        <f t="shared" si="31"/>
+        <v>42</v>
+      </c>
+      <c r="Z65" s="2">
+        <f t="shared" si="32"/>
+        <v>23</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="34"/>
+        <v>44</v>
+      </c>
+      <c r="AD65" s="4">
+        <f t="shared" si="35"/>
+        <v>91.2</v>
+      </c>
+      <c r="AE65" s="4"/>
+      <c r="AF65">
+        <f t="shared" si="36"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="6">
+        <v>25</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="6">
+        <v>500</v>
+      </c>
+      <c r="G66" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L66" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M66" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N66" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O66" s="6">
+        <v>1</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+      <c r="R66" s="6">
+        <v>1</v>
+      </c>
+      <c r="S66" s="6">
+        <v>0</v>
+      </c>
+      <c r="T66" s="6">
+        <v>0</v>
+      </c>
+      <c r="U66" s="6">
+        <v>0</v>
+      </c>
+      <c r="V66" s="8">
+        <v>0</v>
+      </c>
+      <c r="W66" s="8">
+        <v>0</v>
+      </c>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="4"/>
+      <c r="AF66">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F69" s="1"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -6731,7 +7967,7 @@
       <formula>$A69="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X64">
+  <conditionalFormatting sqref="X2:X66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2="Travée"</formula>
     </cfRule>
